--- a/Calendario2022/Examenes/Modulo4.xlsx
+++ b/Calendario2022/Examenes/Modulo4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2022\Examenes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{654E1401-5942-4B61-8C57-6B654BD60BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26FDC09-BD18-48FE-8BAC-2D7711864BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BDD075B0-B643-4FF9-9E47-18F39BACC29D}"/>
   </bookViews>
@@ -383,7 +383,7 @@
   <dimension ref="C3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -415,11 +415,11 @@
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <f>13*10/15</f>
-        <v>8.6666666666666661</v>
+        <f>14*10/15</f>
+        <v>9.3333333333333339</v>
       </c>
     </row>
   </sheetData>
